--- a/ig/ci-build-0.2.1/StructureDefinition-ror-task.xlsx
+++ b/ig/ci-build-0.2.1/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T14:26:34+00:00</t>
+    <t>2024-01-12T14:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
